--- a/_Assets/IO List.xlsx
+++ b/_Assets/IO List.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\TwinCAT\Punch1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\TwinCAT\Punch1\Punch\_Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{5D09B0D8-1612-44FC-85EE-589A4947AF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA96C674-12B6-433D-B89F-3683A827769B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36396" yWindow="804" windowWidth="9456" windowHeight="11064" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="37680" yWindow="1656" windowWidth="8400" windowHeight="10608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1209,10 +1208,10 @@
   <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2442,6 +2441,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FBFF507AADA10041B48BA16CE8FECEE9" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f6047cdd25c9cf66922769810f16b39a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62d6d6c5-65e1-4014-a8f3-e6ca1c548838" xmlns:ns3="e7c3118f-7fae-4a88-908f-add9ecbff707" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="89965db839d4640fcd898fb054f08736" ns2:_="" ns3:_="">
     <xsd:import namespace="62d6d6c5-65e1-4014-a8f3-e6ca1c548838"/>
@@ -2696,16 +2704,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D566B2A0-793C-4D04-8C96-E3832F429E54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0F425C1-EADA-429E-8E7E-5F9177206F8D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2722,12 +2729,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D566B2A0-793C-4D04-8C96-E3832F429E54}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>